--- a/data/epa_xls/lmopdatavi.xlsx
+++ b/data/epa_xls/lmopdatavi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr backupFile="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\LMOP\LFDatabase\Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED4A732-28F7-4302-9FE8-782902259DE7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7448010-2796-46E8-86EC-F5D713842536}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <author>Jeanette Alvis</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{F9163CC7-4A2A-40C4-A6A8-2EE1EE3005F3}">
       <text>
         <r>
           <rPr>
@@ -50,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{4C2D3AE7-E259-4E7A-8697-F78D8655F53B}">
       <text>
         <r>
           <rPr>
@@ -64,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{3A9C890B-9505-46EC-B7EC-D59FEE93390B}">
       <text>
         <r>
           <rPr>
@@ -78,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{7EF2BBB8-4B00-41B8-B01F-23512142A5B0}">
       <text>
         <r>
           <rPr>
@@ -92,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{8B90E05B-0CD0-4FF6-9CC5-EFCCD6693F78}">
       <text>
         <r>
           <rPr>
@@ -106,7 +106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{BBBB0C85-1400-4A46-BC4E-5B53F3AE4FC1}">
       <text>
         <r>
           <rPr>
@@ -120,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{36374712-F299-4360-8F95-4DD9E97C2C8E}">
       <text>
         <r>
           <rPr>
@@ -134,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{1B87BB5C-2668-4538-8E54-43CBA52BFD45}">
       <text>
         <r>
           <rPr>
@@ -148,7 +148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{502461E0-A0E6-40BD-9462-F5B3A956C2D3}">
       <text>
         <r>
           <rPr>
@@ -161,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{2F1B0CBA-CE92-405B-BF60-C7995E52F3A9}">
       <text>
         <r>
           <rPr>
@@ -174,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{EDDF59E3-09FA-498D-91DA-8D319FF2875A}">
       <text>
         <r>
           <rPr>
@@ -188,7 +188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{3C101140-397B-4C09-8E98-B8D9059005AF}">
       <text>
         <r>
           <rPr>
@@ -202,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{A470A0DE-33F0-480D-9D83-D1EF9D770C98}">
       <text>
         <r>
           <rPr>
@@ -216,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{0CD45FBE-A832-46C2-89B3-DB7E879E06D8}">
       <text>
         <r>
           <rPr>
@@ -230,7 +230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000F000000}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{B29E6A74-C520-4BB7-B2C9-202009E82EEF}">
       <text>
         <r>
           <rPr>
@@ -244,7 +244,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000010000000}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{45A89870-9186-4653-860B-254D7049DE90}">
       <text>
         <r>
           <rPr>
@@ -258,7 +258,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000011000000}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{3B508B40-3982-4F4B-AFCD-04BEC1E62E41}">
       <text>
         <r>
           <rPr>
@@ -272,7 +272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000012000000}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{D26BD81D-28CD-475C-9B7C-C656D6DFBCF9}">
       <text>
         <r>
           <rPr>
@@ -286,7 +286,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000013000000}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{22A1BB22-6912-4F89-8FE0-82F8450FBA4E}">
       <text>
         <r>
           <rPr>
@@ -300,7 +300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000014000000}">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{F2BE5763-3CF4-4572-9E1E-087984959468}">
       <text>
         <r>
           <rPr>
@@ -314,7 +314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000015000000}">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{7A9AE817-2904-4A84-841C-80860A62CAFA}">
       <text>
         <r>
           <rPr>
@@ -328,7 +328,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{DE5A1749-4F23-4174-879D-E9673B6B3590}">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{B0D73785-AF34-40FF-8BDB-D261B5BF9440}">
       <text>
         <r>
           <rPr>
@@ -342,7 +342,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000017000000}">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{0E6DCEC0-0392-4385-907A-C9AD70736489}">
       <text>
         <r>
           <rPr>
@@ -356,7 +356,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{428EADDE-D395-4F71-8807-160B22CAAFC5}">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{7AC3AA8E-0C04-42B6-8E40-273E75919B74}">
       <text>
         <r>
           <rPr>
@@ -370,7 +370,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{F86BD08E-0A42-4C0B-A7EB-F7E0D20DC5FF}">
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{F8875704-0265-44F2-8A5F-88C4AD582072}">
       <text>
         <r>
           <rPr>
@@ -384,7 +384,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{204BA802-93FB-490A-BE09-38A7AA7DF630}">
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{BFB5756A-FF1A-4A16-8453-D4D68664ECF6}">
       <text>
         <r>
           <rPr>
@@ -397,7 +397,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001A000000}">
+    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{129D7764-94F6-44C1-AAFF-7141B1F48B0B}">
       <text>
         <r>
           <rPr>
@@ -411,7 +411,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="1" shapeId="0" xr:uid="{239418FE-F731-414A-98AD-86C8FA6753AF}">
+    <comment ref="AB1" authorId="1" shapeId="0" xr:uid="{E329628F-F423-42A6-A323-59E7B9519E62}">
       <text>
         <r>
           <rPr>
@@ -425,21 +425,35 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001C000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Capacity in megawatts for electricity-generating projects
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001D000000}">
+    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{B7A5875C-E923-415E-85A8-2518F0838F97}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Actual or estimated electric generation in megawatts for electricity-generating projects
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{48319017-3583-4830-BAB2-34FF776EDB7B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Rated capacity in megawatts for electricity-generating projects
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{C3A27124-5667-4188-822F-E67AF3CA0535}">
       <text>
         <r>
           <rPr>
@@ -453,7 +467,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001E000000}">
+    <comment ref="AF1" authorId="0" shapeId="0" xr:uid="{CD0E2100-AC0C-418C-BB30-D5AEF504FE67}">
       <text>
         <r>
           <rPr>
@@ -467,7 +481,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001F000000}">
+    <comment ref="AG1" authorId="0" shapeId="0" xr:uid="{150E8441-03A0-4E25-9889-F65C7C426F40}">
       <text>
         <r>
           <rPr>
@@ -486,7 +500,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="99">
   <si>
     <t>GHGRP ID</t>
   </si>
@@ -569,9 +583,6 @@
     <t>Project Type Category</t>
   </si>
   <si>
-    <t>MW Capacity</t>
-  </si>
-  <si>
     <t>LFG Flow to Project (mmscfd)</t>
   </si>
   <si>
@@ -597,9 +608,6 @@
   </si>
   <si>
     <t>Unknown</t>
-  </si>
-  <si>
-    <t>Closed</t>
   </si>
   <si>
     <t>Count of Unique Landfills in this File</t>
@@ -702,9 +710,6 @@
     <t>Specific type of LFG energy project technology</t>
   </si>
   <si>
-    <t>Capacity in megawatts for electricity-generating projects</t>
-  </si>
-  <si>
     <t>Amount of landfill gas flowing to project or that will flow to the project when it becomes operational in million standard cubic feet per day</t>
   </si>
   <si>
@@ -911,11 +916,26 @@
   <si>
     <t>Low Potential</t>
   </si>
+  <si>
+    <t>Actual MW Generation</t>
+  </si>
+  <si>
+    <t>Rated MW Capacity</t>
+  </si>
+  <si>
+    <t>Actual or estimated electric generation in megawatts for electricity-generating projects</t>
+  </si>
+  <si>
+    <t>Rated capacity in megawatts for electricity-generating projects</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1207,7 +1227,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1318,6 +1338,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1745,10 +1768,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
@@ -1770,36 +1793,36 @@
       <c r="D3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
+      <c r="A4" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="51"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="50"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="50"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="50"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="50"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
     </row>
     <row r="9" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A9"/>
@@ -1814,70 +1837,70 @@
       <c r="D10"/>
     </row>
     <row r="11" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="54"/>
+      <c r="A11" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="57"/>
+      <c r="A12" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="58"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="48"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="45"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="46"/>
     </row>
     <row r="14" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
       <c r="B14" s="23"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="45"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="46"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="45"/>
+      <c r="A15" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="45"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="46"/>
     </row>
     <row r="16" spans="1:4" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A16" s="48"/>
-      <c r="B16" s="44"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="45"/>
       <c r="C16" s="24"/>
       <c r="D16" s="25"/>
     </row>
     <row r="17" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A17" s="22"/>
       <c r="B17" s="23"/>
-      <c r="C17" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="45"/>
+      <c r="C17" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="46"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="45"/>
+      <c r="A18" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="45"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="46"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="48"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="45"/>
+      <c r="A19" s="49"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="46"/>
     </row>
     <row r="20" spans="1:4" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A20" s="26"/>
@@ -1886,20 +1909,20 @@
       <c r="D20" s="29"/>
     </row>
     <row r="21" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="45"/>
+      <c r="A21" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="46"/>
     </row>
     <row r="22" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="48"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="45"/>
+      <c r="A22" s="49"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="46"/>
     </row>
     <row r="23" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A23" s="30"/>
@@ -1910,16 +1933,16 @@
     <row r="24" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A24" s="22"/>
       <c r="B24" s="23"/>
-      <c r="C24" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" s="45"/>
+      <c r="C24" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="46"/>
     </row>
     <row r="25" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A25" s="33"/>
       <c r="B25" s="34"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1941,14 +1964,14 @@
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Arial,Bold"&amp;12Summary for 
 Current LMOP Landfill and LFG Energy Project Database - Virgin Islands</oddHeader>
-    <oddFooter>&amp;L&amp;"Arial,Regular"&amp;8&amp;F&amp;R&amp;"Arial,Regular"&amp;8 2/19/19</oddFooter>
+    <oddFooter>&amp;L&amp;"Arial,Regular"&amp;8&amp;F&amp;R&amp;"Arial,Regular"&amp;8 12/18/19</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AF3"/>
+  <dimension ref="A1:AG3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
@@ -1983,13 +2006,13 @@
     <col min="25" max="25" width="9.6640625" style="13" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9.44140625" customWidth="1"/>
     <col min="27" max="27" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.5546875" style="43" customWidth="1"/>
-    <col min="29" max="29" width="3.5546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.77734375" style="43" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="3" customFormat="1" ht="84.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" s="3" customFormat="1" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -2072,40 +2095,43 @@
         <v>25</v>
       </c>
       <c r="AB1" s="17" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AC1" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD1" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="16" t="s">
+      <c r="AF1" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="17" t="s">
+      <c r="AG1" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:33" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6">
         <v>2295</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>95</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="6">
@@ -2115,19 +2141,19 @@
         <v>-64.778000000000006</v>
       </c>
       <c r="K2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M2" s="6">
+        <v>1967</v>
+      </c>
+      <c r="N2" s="6">
+        <v>2022</v>
+      </c>
+      <c r="O2" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="M2" s="6">
-        <v>1966</v>
-      </c>
-      <c r="N2" s="6">
-        <v>2010</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="P2" s="7">
         <v>2200000</v>
@@ -2136,50 +2162,51 @@
         <v>2002</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S2" s="6"/>
       <c r="T2" s="6"/>
       <c r="U2" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="W2" s="6"/>
       <c r="X2" s="8"/>
       <c r="Y2" s="8"/>
       <c r="Z2" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB2" s="6"/>
       <c r="AC2" s="6"/>
       <c r="AD2" s="6"/>
       <c r="AE2" s="6"/>
       <c r="AF2" s="6"/>
-    </row>
-    <row r="3" spans="1:32" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AG2" s="6"/>
+    </row>
+    <row r="3" spans="1:33" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="10">
         <v>2296</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>86</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>89</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="10">
@@ -2189,10 +2216,10 @@
         <v>-64.885499999999993</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M3" s="10">
         <v>1980</v>
@@ -2201,7 +2228,7 @@
         <v>2019</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P3" s="11">
         <v>1500000</v>
@@ -2210,33 +2237,34 @@
         <v>2000</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S3" s="10"/>
       <c r="T3" s="10"/>
       <c r="U3" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="V3" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W3" s="10"/>
       <c r="X3" s="12"/>
       <c r="Y3" s="12"/>
       <c r="Z3" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA3" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB3" s="10"/>
       <c r="AC3" s="10"/>
       <c r="AD3" s="10"/>
       <c r="AE3" s="10"/>
       <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AF3">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AG3">
     <sortCondition ref="C2:C3"/>
     <sortCondition ref="U2:U3"/>
   </sortState>
@@ -2245,7 +2273,7 @@
   <pageMargins left="0" right="0" top="0.8" bottom="0.9" header="0.4" footer="0.3"/>
   <pageSetup paperSize="5" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;"Arial,Bold"&amp;12Current LMOP Landfill and LFG Energy Project Database - Virgin Islands&amp;R&amp;"Arial,Regular"&amp;8 2/19/19</oddHeader>
+    <oddHeader>&amp;C&amp;"Arial,Bold"&amp;12Current LMOP Landfill and LFG Energy Project Database - Virgin Islands&amp;R&amp;"Arial,Regular"&amp;8 12/18/19</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,Regular"&amp;8&amp;P</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
@@ -2257,7 +2285,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2275,10 +2303,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="14" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -2286,7 +2314,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -2294,7 +2322,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -2302,7 +2330,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -2310,7 +2338,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -2318,7 +2346,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -2326,7 +2354,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -2334,7 +2362,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -2342,7 +2370,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -2350,7 +2378,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -2358,7 +2386,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -2366,7 +2394,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -2374,7 +2402,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -2382,7 +2410,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -2390,7 +2418,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -2398,7 +2426,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -2406,7 +2434,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -2414,7 +2442,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="41" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="24" x14ac:dyDescent="0.25">
@@ -2422,7 +2450,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="41" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -2430,7 +2458,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="41" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -2438,7 +2466,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="41" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -2446,7 +2474,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -2454,7 +2482,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="41" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -2462,7 +2490,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="41" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -2470,7 +2498,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -2478,7 +2506,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="41" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -2486,7 +2514,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -2494,47 +2522,55 @@
         <v>25</v>
       </c>
       <c r="B28" s="41" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="12" x14ac:dyDescent="0.25">
       <c r="A29" s="41" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B29" s="41" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="12" x14ac:dyDescent="0.25">
-      <c r="A30" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="41" t="s">
-        <v>66</v>
+      <c r="A30" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="40" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="12" x14ac:dyDescent="0.25">
-      <c r="A31" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="41" t="s">
-        <v>67</v>
+      <c r="A31" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="40" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="12" x14ac:dyDescent="0.25">
       <c r="A32" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="12" x14ac:dyDescent="0.25">
+      <c r="A33" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="12" x14ac:dyDescent="0.25">
+      <c r="A34" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="41" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="12" x14ac:dyDescent="0.25">
-      <c r="A33" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="42" t="s">
-        <v>69</v>
+      <c r="B34" s="42" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
